--- a/statistics/SPSS/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
@@ -79,12 +79,12 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="16.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.014194998569998563</v>
+        <v>-0.0070974992849992813</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0484768318101651</v>
+        <v>0.02423841590508255</v>
       </c>
       <c r="C2" s="0">
-        <v>0.025343112155256475</v>
+        <v>0.012671556077628238</v>
       </c>
       <c r="D2" s="0">
-        <v>0.011791383219954654</v>
+        <v>0.0058956916099773271</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.0074239417989417356</v>
+        <v>-0.0037119708994708678</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0099595393713040603</v>
+        <v>-0.0049797696856520302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.097421067192308919</v>
+        <v>-0.048710533596154459</v>
       </c>
       <c r="B3" s="0">
-        <v>0.055166511048863998</v>
+        <v>0.027583255524431999</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0093770841670001714</v>
+        <v>-0.0046885420835000857</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.036570183629007214</v>
+        <v>-0.018285091814503607</v>
       </c>
       <c r="E3" s="0">
-        <v>0.012838468720821616</v>
+        <v>0.0064192343604108082</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.087603930461073343</v>
+        <v>-0.043801965230536671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0012806924571630574</v>
+        <v>0.00064034622858152868</v>
       </c>
       <c r="B4" s="0">
-        <v>0.052257628197477979</v>
+        <v>0.026128814098738989</v>
       </c>
       <c r="C4" s="0">
-        <v>0.11752672278988063</v>
+        <v>0.058763361394940317</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0027698638809748877</v>
+        <v>-0.0013849319404874438</v>
       </c>
       <c r="E4" s="0">
-        <v>0.016925028620935034</v>
+        <v>0.0084625143104675171</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.017075683742350467</v>
+        <v>-0.0085378418711752335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.040387326101611942</v>
+        <v>-0.020193663050805971</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0014029180695847021</v>
+        <v>0.00070145903479235105</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.13146837682441398</v>
+        <v>-0.06573418841220699</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.009827107049329209</v>
+        <v>-0.0049135535246646045</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0063706037970743812</v>
+        <v>-0.0031853018985371906</v>
       </c>
       <c r="F5" s="0">
-        <v>0.048687151628328096</v>
+        <v>0.024343575814164048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.010857010857010907</v>
+        <v>-0.0054285054285054535</v>
       </c>
       <c r="B6" s="0">
-        <v>0.031897745159393864</v>
+        <v>0.015948872579696932</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.097954602716507355</v>
+        <v>-0.048977301358253678</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.043510737628384699</v>
+        <v>-0.02175536881419235</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.037447651733366116</v>
+        <v>-0.018723825866683058</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0087309531753976266</v>
+        <v>-0.0043654765876988133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.10573457453156704</v>
+        <v>-0.052867287265783519</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.056703826311669425</v>
+        <v>-0.028351913155834713</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0048251714918380872</v>
+        <v>-0.0024125857459190436</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.042025699168556363</v>
+        <v>-0.021012849584278182</v>
       </c>
       <c r="E7" s="0">
-        <v>0.020689247921390708</v>
+        <v>0.010344623960695354</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.035311161501637767</v>
+        <v>-0.017655580750818883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.11597942480295426</v>
+        <v>0.057989712401477128</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.052593497037941361</v>
+        <v>-0.026296748518970681</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0029604434366339305</v>
+        <v>0.0014802217183169653</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0060597838375615609</v>
+        <v>0.0030298919187807805</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.10359338930767503</v>
+        <v>-0.051796694653837516</v>
       </c>
       <c r="F8" s="0">
-        <v>0.035218253968254121</v>
+        <v>0.01760912698412706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.01019370290203625</v>
+        <v>-0.0050968514510181251</v>
       </c>
       <c r="B9" s="0">
-        <v>0.039453344061638917</v>
+        <v>0.019726672030819459</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.047795886031180013</v>
+        <v>-0.023897943015590006</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.017880238515159075</v>
+        <v>-0.0089401192575795374</v>
       </c>
       <c r="E9" s="0">
-        <v>0.07142621358307627</v>
+        <v>0.035713106791538135</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.001694049939663933</v>
+        <v>-0.00084702496983196651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.077282023920679399</v>
+        <v>-0.0386410119603397</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.017543859649122751</v>
+        <v>-0.0087719298245613753</v>
       </c>
       <c r="C10" s="0">
-        <v>0.059757716900574076</v>
+        <v>0.029878858450287038</v>
       </c>
       <c r="D10" s="0">
-        <v>0.10156951669556716</v>
+        <v>0.050784758347783579</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.018520504631615753</v>
+        <v>-0.0092602523158078764</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.014354630741185315</v>
+        <v>-0.0071773153705926573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0060982227648893605</v>
+        <v>0.0030491113824446803</v>
       </c>
       <c r="B11" s="0">
-        <v>0.037733221943748396</v>
+        <v>0.018866610971874198</v>
       </c>
       <c r="C11" s="0">
-        <v>0.009438009438009487</v>
+        <v>0.0047190047190047435</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.00030923780923775013</v>
+        <v>-0.00015461890461887506</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.056415343915344002</v>
+        <v>-0.028207671957672001</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.059156378600823123</v>
+        <v>-0.029578189300411561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.03241901048918594</v>
+        <v>0.01620950524459297</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.018185193623790119</v>
+        <v>-0.0090925968118950595</v>
       </c>
       <c r="C12" s="0">
-        <v>0.033564176421319314</v>
+        <v>0.016782088210659657</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.058318415085332309</v>
+        <v>-0.029159207542666155</v>
       </c>
       <c r="E12" s="0">
-        <v>0.037883007181252704</v>
+        <v>0.018941503590626352</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0086148419481753002</v>
+        <v>0.0043074209740876501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.066553491992088487</v>
+        <v>0.033276745996044244</v>
       </c>
       <c r="B13" s="0">
-        <v>0.10664771914771917</v>
+        <v>0.053323859573859586</v>
       </c>
       <c r="C13" s="0">
-        <v>0.039174324700640528</v>
+        <v>0.019587162350320264</v>
       </c>
       <c r="D13" s="0">
-        <v>0.060582010582010737</v>
+        <v>0.030291005291005368</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0087674671008004523</v>
+        <v>0.0043837335504002262</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.04139622560675188</v>
+        <v>-0.02069811280337594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.022919291173259415</v>
+        <v>-0.011459645586629708</v>
       </c>
       <c r="B14" s="0">
-        <v>0.017342739564961629</v>
+        <v>0.0086713697824808145</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0023819738105452237</v>
+        <v>0.0011909869052726119</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0057578586990351677</v>
+        <v>-0.0028789293495175838</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.023380523380523377</v>
+        <v>-0.011690261690261688</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0083172999839665196</v>
+        <v>0.0041586499919832598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.10428827095493765</v>
+        <v>-0.052144135477468823</v>
       </c>
       <c r="B15" s="0">
-        <v>0.1114308753197642</v>
+        <v>0.0557154376598821</v>
       </c>
       <c r="C15" s="0">
-        <v>0.096893026216334499</v>
+        <v>0.04844651310816725</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.013893592840961144</v>
+        <v>-0.0069467964204805721</v>
       </c>
       <c r="E15" s="0">
-        <v>0.091998415527827282</v>
+        <v>0.045999207763913641</v>
       </c>
       <c r="F15" s="0">
-        <v>0.037188208616780016</v>
+        <v>0.018594104308390008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.016486724820058307</v>
+        <v>-0.0082433624100291536</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.074450013923698266</v>
+        <v>-0.037225006961849133</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.028051861385194665</v>
+        <v>-0.014025930692597333</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.00097465886939585022</v>
+        <v>-0.00048732943469792511</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0056246722913388947</v>
+        <v>-0.0028123361456694473</v>
       </c>
       <c r="F16" s="0">
-        <v>0.08185496420790539</v>
+        <v>0.040927482103952695</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.017563198118753676</v>
+        <v>-0.0087815990593768378</v>
       </c>
       <c r="B17" s="0">
-        <v>0.021846282372598169</v>
+        <v>0.010923141186299085</v>
       </c>
       <c r="C17" s="0">
-        <v>0.087873587873587899</v>
+        <v>0.04393679393679395</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.028875028875028852</v>
+        <v>-0.014437514437514426</v>
       </c>
       <c r="E17" s="0">
-        <v>0.033104533104532985</v>
+        <v>0.016552266552266492</v>
       </c>
       <c r="F17" s="0">
-        <v>0.023340801118578891</v>
+        <v>0.011670400559289446</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.12079968439617572</v>
+        <v>0.060399842198087861</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0056371086446272978</v>
+        <v>0.0028185543223136489</v>
       </c>
       <c r="C18" s="0">
-        <v>0.012643946467475908</v>
+        <v>0.0063219732337379542</v>
       </c>
       <c r="D18" s="0">
-        <v>0.00057830940183889457</v>
+        <v>0.00028915470091944728</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.042670277987738314</v>
+        <v>-0.021335138993869157</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.076696481061560573</v>
+        <v>-0.038348240530780286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.088223314016964871</v>
+        <v>-0.044111657008482436</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.048473807976732008</v>
+        <v>-0.024236903988366004</v>
       </c>
       <c r="C19" s="0">
-        <v>0.11997711997711991</v>
+        <v>0.059988559988559953</v>
       </c>
       <c r="D19" s="0">
-        <v>0.019521843825249408</v>
+        <v>0.0097609219126247038</v>
       </c>
       <c r="E19" s="0">
-        <v>0.058063629492201008</v>
+        <v>0.029031814746100504</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0047789725209079759</v>
+        <v>-0.0023894862604539879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0042618756904472255</v>
+        <v>-0.0021309378452236127</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.059452309452309615</v>
+        <v>-0.029726154726154808</v>
       </c>
       <c r="C20" s="0">
-        <v>0.032576990910324233</v>
+        <v>0.016288495455162116</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.070869943418963022</v>
+        <v>-0.035434971709481511</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0078008411341743966</v>
+        <v>-0.0039004205670871983</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.017149081854964221</v>
+        <v>-0.0085745409274821105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.038564205230871951</v>
+        <v>0.019282102615435975</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0020564231090546281</v>
+        <v>0.0010282115545273141</v>
       </c>
       <c r="C21" s="0">
-        <v>0.015293681960348582</v>
+        <v>0.0076468409801742909</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0032203014659155094</v>
+        <v>-0.0016101507329577547</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0028473962684489318</v>
+        <v>0.0014236981342244659</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.044341044341044411</v>
+        <v>-0.022170522170522206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.026728409081350435</v>
+        <v>-0.013364204540675217</v>
       </c>
       <c r="B22" s="0">
-        <v>0.020521017048794776</v>
+        <v>0.010260508524397388</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.049119668911335512</v>
+        <v>-0.024559834455667756</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.031975363244713173</v>
+        <v>-0.015987681622356587</v>
       </c>
       <c r="E22" s="0">
-        <v>0.030309901738473144</v>
+        <v>0.015154950869236572</v>
       </c>
       <c r="F22" s="0">
-        <v>0.013684319239874898</v>
+        <v>0.006842159619937449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.067519900853234172</v>
+        <v>0.033759950426617086</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.049776306919164015</v>
+        <v>-0.024888153459582008</v>
       </c>
       <c r="C23" s="0">
-        <v>0.10518601308074993</v>
+        <v>0.052593006540374965</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.034772868106201449</v>
+        <v>-0.017386434053100724</v>
       </c>
       <c r="E23" s="0">
-        <v>0.10527256579888161</v>
+        <v>0.052636282899440806</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.0027622159975101424</v>
+        <v>-0.0013811079987550712</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.052481052481052504</v>
+        <v>-0.026240526240526252</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.018626813948451448</v>
+        <v>-0.0093134069742257242</v>
       </c>
       <c r="C24" s="0">
-        <v>0.025505358838692205</v>
+        <v>0.012752679419346102</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.096700083542188731</v>
+        <v>-0.048350041771094365</v>
       </c>
       <c r="E24" s="0">
-        <v>0.061914044370184718</v>
+        <v>0.030957022185092359</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.027859891894979727</v>
+        <v>-0.013929945947489863</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.018858760238070565</v>
+        <v>0.0094293801190352827</v>
       </c>
       <c r="B25" s="0">
-        <v>0.047118547118547072</v>
+        <v>0.023559273559273536</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.045803379136712452</v>
+        <v>-0.022901689568356226</v>
       </c>
       <c r="D25" s="0">
-        <v>0.010367510367510324</v>
+        <v>0.0051837551837551621</v>
       </c>
       <c r="E25" s="0">
-        <v>0.030161020637211211</v>
+        <v>0.015080510318605606</v>
       </c>
       <c r="F25" s="0">
-        <v>0.045333279708279772</v>
+        <v>0.022666639854139886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.054762678300690093</v>
+        <v>0.027381339150345047</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0064309207166350357</v>
+        <v>-0.0032154603583175179</v>
       </c>
       <c r="C26" s="0">
-        <v>0.06611162983711999</v>
+        <v>0.033055814918559995</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.071456916099773338</v>
+        <v>-0.035728458049886669</v>
       </c>
       <c r="E26" s="0">
-        <v>0.011995206439650852</v>
+        <v>0.0059976032198254259</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.025638032990974169</v>
+        <v>-0.012819016495487084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.030375083006661974</v>
+        <v>0.015187541503330987</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.093130202048330724</v>
+        <v>-0.046565101024165362</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.036076893219750383</v>
+        <v>-0.018038446609875192</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.025168025168025077</v>
+        <v>-0.012584012584012538</v>
       </c>
       <c r="E27" s="0">
-        <v>0.0072581739248406829</v>
+        <v>0.0036290869624203415</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.024596024596024557</v>
+        <v>-0.012298012298012279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.11363273704543547</v>
+        <v>0.056816368522717736</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0099823325629778137</v>
+        <v>-0.0049911662814889068</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.046826588493255161</v>
+        <v>-0.023413294246627581</v>
       </c>
       <c r="D28" s="0">
-        <v>0.0070483749055177958</v>
+        <v>0.0035241874527588979</v>
       </c>
       <c r="E28" s="0">
-        <v>0.034340331114524614</v>
+        <v>0.017170165557262307</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0021008403361344463</v>
+        <v>-0.0010504201680672232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.071219715956558072</v>
+        <v>-0.035609857978279036</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.022335522335522329</v>
+        <v>-0.011167761167761164</v>
       </c>
       <c r="C29" s="0">
-        <v>0.001614709948043247</v>
+        <v>0.00080735497402162348</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.030464232476616337</v>
+        <v>-0.015232116238308169</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.028751200179771508</v>
+        <v>-0.014375600089885754</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.017160017160017194</v>
+        <v>-0.0085800085800085968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.025094737594737626</v>
+        <v>-0.012547368797368813</v>
       </c>
       <c r="B30" s="0">
-        <v>0.05865508365508354</v>
+        <v>0.02932754182754177</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.023892940559607168</v>
+        <v>-0.011946470279803584</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0088677963677963323</v>
+        <v>0.0044338981838981661</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0038359788359788038</v>
+        <v>0.0019179894179894019</v>
       </c>
       <c r="F30" s="0">
-        <v>0.033593744120059943</v>
+        <v>0.016796872060029971</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
@@ -79,12 +79,12 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="16.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0070974992849992813</v>
+        <v>-0.014194998569998563</v>
       </c>
       <c r="B2" s="0">
-        <v>0.02423841590508255</v>
+        <v>0.0484768318101651</v>
       </c>
       <c r="C2" s="0">
-        <v>0.012671556077628238</v>
+        <v>0.025343112155256475</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0058956916099773271</v>
+        <v>0.011791383219954654</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.0037119708994708678</v>
+        <v>-0.0074239417989417356</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0049797696856520302</v>
+        <v>-0.0099595393713040603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.048710533596154459</v>
+        <v>-0.097421067192308919</v>
       </c>
       <c r="B3" s="0">
-        <v>0.027583255524431999</v>
+        <v>0.055166511048863998</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0046885420835000857</v>
+        <v>-0.0093770841670001714</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.018285091814503607</v>
+        <v>-0.036570183629007214</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0064192343604108082</v>
+        <v>0.012838468720821616</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.043801965230536671</v>
+        <v>-0.087603930461073343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.00064034622858152868</v>
+        <v>0.0012806924571630574</v>
       </c>
       <c r="B4" s="0">
-        <v>0.026128814098738989</v>
+        <v>0.052257628197477979</v>
       </c>
       <c r="C4" s="0">
-        <v>0.058763361394940317</v>
+        <v>0.11752672278988063</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0013849319404874438</v>
+        <v>-0.0027698638809748877</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0084625143104675171</v>
+        <v>0.016925028620935034</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0085378418711752335</v>
+        <v>-0.017075683742350467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.020193663050805971</v>
+        <v>-0.040387326101611942</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00070145903479235105</v>
+        <v>0.0014029180695847021</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.06573418841220699</v>
+        <v>-0.13146837682441398</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0049135535246646045</v>
+        <v>-0.009827107049329209</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0031853018985371906</v>
+        <v>-0.0063706037970743812</v>
       </c>
       <c r="F5" s="0">
-        <v>0.024343575814164048</v>
+        <v>0.048687151628328096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0054285054285054535</v>
+        <v>-0.010857010857010907</v>
       </c>
       <c r="B6" s="0">
-        <v>0.015948872579696932</v>
+        <v>0.031897745159393864</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.048977301358253678</v>
+        <v>-0.097954602716507355</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.02175536881419235</v>
+        <v>-0.043510737628384699</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.018723825866683058</v>
+        <v>-0.037447651733366116</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0043654765876988133</v>
+        <v>-0.0087309531753976266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.052867287265783519</v>
+        <v>-0.10573457453156704</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.028351913155834713</v>
+        <v>-0.056703826311669425</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0024125857459190436</v>
+        <v>-0.0048251714918380872</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.021012849584278182</v>
+        <v>-0.042025699168556363</v>
       </c>
       <c r="E7" s="0">
-        <v>0.010344623960695354</v>
+        <v>0.020689247921390708</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.017655580750818883</v>
+        <v>-0.035311161501637767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.057989712401477128</v>
+        <v>0.11597942480295426</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.026296748518970681</v>
+        <v>-0.052593497037941361</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0014802217183169653</v>
+        <v>0.0029604434366339305</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0030298919187807805</v>
+        <v>0.0060597838375615609</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.051796694653837516</v>
+        <v>-0.10359338930767503</v>
       </c>
       <c r="F8" s="0">
-        <v>0.01760912698412706</v>
+        <v>0.035218253968254121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0050968514510181251</v>
+        <v>-0.01019370290203625</v>
       </c>
       <c r="B9" s="0">
-        <v>0.019726672030819459</v>
+        <v>0.039453344061638917</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.023897943015590006</v>
+        <v>-0.047795886031180013</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0089401192575795374</v>
+        <v>-0.017880238515159075</v>
       </c>
       <c r="E9" s="0">
-        <v>0.035713106791538135</v>
+        <v>0.07142621358307627</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.00084702496983196651</v>
+        <v>-0.001694049939663933</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0386410119603397</v>
+        <v>-0.077282023920679399</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0087719298245613753</v>
+        <v>-0.017543859649122751</v>
       </c>
       <c r="C10" s="0">
-        <v>0.029878858450287038</v>
+        <v>0.059757716900574076</v>
       </c>
       <c r="D10" s="0">
-        <v>0.050784758347783579</v>
+        <v>0.10156951669556716</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0092602523158078764</v>
+        <v>-0.018520504631615753</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0071773153705926573</v>
+        <v>-0.014354630741185315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0030491113824446803</v>
+        <v>0.0060982227648893605</v>
       </c>
       <c r="B11" s="0">
-        <v>0.018866610971874198</v>
+        <v>0.037733221943748396</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0047190047190047435</v>
+        <v>0.009438009438009487</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.00015461890461887506</v>
+        <v>-0.00030923780923775013</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.028207671957672001</v>
+        <v>-0.056415343915344002</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.029578189300411561</v>
+        <v>-0.059156378600823123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.01620950524459297</v>
+        <v>0.03241901048918594</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0090925968118950595</v>
+        <v>-0.018185193623790119</v>
       </c>
       <c r="C12" s="0">
-        <v>0.016782088210659657</v>
+        <v>0.033564176421319314</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.029159207542666155</v>
+        <v>-0.058318415085332309</v>
       </c>
       <c r="E12" s="0">
-        <v>0.018941503590626352</v>
+        <v>0.037883007181252704</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0043074209740876501</v>
+        <v>0.0086148419481753002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.033276745996044244</v>
+        <v>0.066553491992088487</v>
       </c>
       <c r="B13" s="0">
-        <v>0.053323859573859586</v>
+        <v>0.10664771914771917</v>
       </c>
       <c r="C13" s="0">
-        <v>0.019587162350320264</v>
+        <v>0.039174324700640528</v>
       </c>
       <c r="D13" s="0">
-        <v>0.030291005291005368</v>
+        <v>0.060582010582010737</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0043837335504002262</v>
+        <v>0.0087674671008004523</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.02069811280337594</v>
+        <v>-0.04139622560675188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011459645586629708</v>
+        <v>-0.022919291173259415</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0086713697824808145</v>
+        <v>0.017342739564961629</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0011909869052726119</v>
+        <v>0.0023819738105452237</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0028789293495175838</v>
+        <v>-0.0057578586990351677</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.011690261690261688</v>
+        <v>-0.023380523380523377</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0041586499919832598</v>
+        <v>0.0083172999839665196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.052144135477468823</v>
+        <v>-0.10428827095493765</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0557154376598821</v>
+        <v>0.1114308753197642</v>
       </c>
       <c r="C15" s="0">
-        <v>0.04844651310816725</v>
+        <v>0.096893026216334499</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0069467964204805721</v>
+        <v>-0.013893592840961144</v>
       </c>
       <c r="E15" s="0">
-        <v>0.045999207763913641</v>
+        <v>0.091998415527827282</v>
       </c>
       <c r="F15" s="0">
-        <v>0.018594104308390008</v>
+        <v>0.037188208616780016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0082433624100291536</v>
+        <v>-0.016486724820058307</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.037225006961849133</v>
+        <v>-0.074450013923698266</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.014025930692597333</v>
+        <v>-0.028051861385194665</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.00048732943469792511</v>
+        <v>-0.00097465886939585022</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0028123361456694473</v>
+        <v>-0.0056246722913388947</v>
       </c>
       <c r="F16" s="0">
-        <v>0.040927482103952695</v>
+        <v>0.08185496420790539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0087815990593768378</v>
+        <v>-0.017563198118753676</v>
       </c>
       <c r="B17" s="0">
-        <v>0.010923141186299085</v>
+        <v>0.021846282372598169</v>
       </c>
       <c r="C17" s="0">
-        <v>0.04393679393679395</v>
+        <v>0.087873587873587899</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.014437514437514426</v>
+        <v>-0.028875028875028852</v>
       </c>
       <c r="E17" s="0">
-        <v>0.016552266552266492</v>
+        <v>0.033104533104532985</v>
       </c>
       <c r="F17" s="0">
-        <v>0.011670400559289446</v>
+        <v>0.023340801118578891</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.060399842198087861</v>
+        <v>0.12079968439617572</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0028185543223136489</v>
+        <v>0.0056371086446272978</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0063219732337379542</v>
+        <v>0.012643946467475908</v>
       </c>
       <c r="D18" s="0">
-        <v>0.00028915470091944728</v>
+        <v>0.00057830940183889457</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.021335138993869157</v>
+        <v>-0.042670277987738314</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.038348240530780286</v>
+        <v>-0.076696481061560573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.044111657008482436</v>
+        <v>-0.088223314016964871</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.024236903988366004</v>
+        <v>-0.048473807976732008</v>
       </c>
       <c r="C19" s="0">
-        <v>0.059988559988559953</v>
+        <v>0.11997711997711991</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0097609219126247038</v>
+        <v>0.019521843825249408</v>
       </c>
       <c r="E19" s="0">
-        <v>0.029031814746100504</v>
+        <v>0.058063629492201008</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0023894862604539879</v>
+        <v>-0.0047789725209079759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0021309378452236127</v>
+        <v>-0.0042618756904472255</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.029726154726154808</v>
+        <v>-0.059452309452309615</v>
       </c>
       <c r="C20" s="0">
-        <v>0.016288495455162116</v>
+        <v>0.032576990910324233</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.035434971709481511</v>
+        <v>-0.070869943418963022</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0039004205670871983</v>
+        <v>-0.0078008411341743966</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0085745409274821105</v>
+        <v>-0.017149081854964221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.019282102615435975</v>
+        <v>0.038564205230871951</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0010282115545273141</v>
+        <v>0.0020564231090546281</v>
       </c>
       <c r="C21" s="0">
-        <v>0.0076468409801742909</v>
+        <v>0.015293681960348582</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0016101507329577547</v>
+        <v>-0.0032203014659155094</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0014236981342244659</v>
+        <v>0.0028473962684489318</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.022170522170522206</v>
+        <v>-0.044341044341044411</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.013364204540675217</v>
+        <v>-0.026728409081350435</v>
       </c>
       <c r="B22" s="0">
-        <v>0.010260508524397388</v>
+        <v>0.020521017048794776</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.024559834455667756</v>
+        <v>-0.049119668911335512</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.015987681622356587</v>
+        <v>-0.031975363244713173</v>
       </c>
       <c r="E22" s="0">
-        <v>0.015154950869236572</v>
+        <v>0.030309901738473144</v>
       </c>
       <c r="F22" s="0">
-        <v>0.006842159619937449</v>
+        <v>0.013684319239874898</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.033759950426617086</v>
+        <v>0.067519900853234172</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.024888153459582008</v>
+        <v>-0.049776306919164015</v>
       </c>
       <c r="C23" s="0">
-        <v>0.052593006540374965</v>
+        <v>0.10518601308074993</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.017386434053100724</v>
+        <v>-0.034772868106201449</v>
       </c>
       <c r="E23" s="0">
-        <v>0.052636282899440806</v>
+        <v>0.10527256579888161</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.0013811079987550712</v>
+        <v>-0.0027622159975101424</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.026240526240526252</v>
+        <v>-0.052481052481052504</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0093134069742257242</v>
+        <v>-0.018626813948451448</v>
       </c>
       <c r="C24" s="0">
-        <v>0.012752679419346102</v>
+        <v>0.025505358838692205</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.048350041771094365</v>
+        <v>-0.096700083542188731</v>
       </c>
       <c r="E24" s="0">
-        <v>0.030957022185092359</v>
+        <v>0.061914044370184718</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.013929945947489863</v>
+        <v>-0.027859891894979727</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0094293801190352827</v>
+        <v>0.018858760238070565</v>
       </c>
       <c r="B25" s="0">
-        <v>0.023559273559273536</v>
+        <v>0.047118547118547072</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.022901689568356226</v>
+        <v>-0.045803379136712452</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0051837551837551621</v>
+        <v>0.010367510367510324</v>
       </c>
       <c r="E25" s="0">
-        <v>0.015080510318605606</v>
+        <v>0.030161020637211211</v>
       </c>
       <c r="F25" s="0">
-        <v>0.022666639854139886</v>
+        <v>0.045333279708279772</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.027381339150345047</v>
+        <v>0.054762678300690093</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0032154603583175179</v>
+        <v>-0.0064309207166350357</v>
       </c>
       <c r="C26" s="0">
-        <v>0.033055814918559995</v>
+        <v>0.06611162983711999</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.035728458049886669</v>
+        <v>-0.071456916099773338</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0059976032198254259</v>
+        <v>0.011995206439650852</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.012819016495487084</v>
+        <v>-0.025638032990974169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.015187541503330987</v>
+        <v>0.030375083006661974</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.046565101024165362</v>
+        <v>-0.093130202048330724</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.018038446609875192</v>
+        <v>-0.036076893219750383</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.012584012584012538</v>
+        <v>-0.025168025168025077</v>
       </c>
       <c r="E27" s="0">
-        <v>0.0036290869624203415</v>
+        <v>0.0072581739248406829</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.012298012298012279</v>
+        <v>-0.024596024596024557</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.056816368522717736</v>
+        <v>0.11363273704543547</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0049911662814889068</v>
+        <v>-0.0099823325629778137</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.023413294246627581</v>
+        <v>-0.046826588493255161</v>
       </c>
       <c r="D28" s="0">
-        <v>0.0035241874527588979</v>
+        <v>0.0070483749055177958</v>
       </c>
       <c r="E28" s="0">
-        <v>0.017170165557262307</v>
+        <v>0.034340331114524614</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0010504201680672232</v>
+        <v>-0.0021008403361344463</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.035609857978279036</v>
+        <v>-0.071219715956558072</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.011167761167761164</v>
+        <v>-0.022335522335522329</v>
       </c>
       <c r="C29" s="0">
-        <v>0.00080735497402162348</v>
+        <v>0.001614709948043247</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.015232116238308169</v>
+        <v>-0.030464232476616337</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.014375600089885754</v>
+        <v>-0.028751200179771508</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0085800085800085968</v>
+        <v>-0.017160017160017194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.012547368797368813</v>
+        <v>-0.025094737594737626</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02932754182754177</v>
+        <v>0.05865508365508354</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.011946470279803584</v>
+        <v>-0.023892940559607168</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0044338981838981661</v>
+        <v>0.0088677963677963323</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0019179894179894019</v>
+        <v>0.0038359788359788038</v>
       </c>
       <c r="F30" s="0">
-        <v>0.016796872060029971</v>
+        <v>0.033593744120059943</v>
       </c>
     </row>
   </sheetData>
